--- a/dados/extreme audio.xlsx
+++ b/dados/extreme audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -596,17 +648,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -646,17 +710,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -671,17 +745,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -696,17 +780,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -721,17 +815,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -746,17 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -796,17 +908,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -821,17 +939,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -846,17 +974,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -871,17 +1005,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -896,17 +1036,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -921,17 +1067,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -946,17 +1098,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -971,17 +1129,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -996,17 +1164,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1195,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1230,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1261,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1292,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1323,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1354,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1385,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1416,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441624469-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3441624469-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1451,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443901659-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443901659-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1482,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1513,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1544,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1579,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976803848-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976803848-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1610,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1645,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1680,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1711,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1746,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1777,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1808,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976900420-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976900420-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1839,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1874,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df32f5f22-e53c-4be1-a17d-c39f5db1509a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
         </is>
       </c>
     </row>

--- a/dados/extreme audio.xlsx
+++ b/dados/extreme audio.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>674.6900000000001</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -511,13 +511,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#searchVariation=MLB27685629&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -542,14 +542,14 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>573.36</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -557,7 +557,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>805.59</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -612,15 +612,19 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>548.24</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -633,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -643,13 +647,13 @@
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>65.39</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -664,7 +668,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -674,15 +678,19 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>492.3</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -695,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -705,14 +713,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>716.71</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -730,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -740,14 +748,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>422.93</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -755,7 +763,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -765,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -775,14 +783,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>624.33</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -790,7 +798,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -800,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -810,13 +818,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -831,7 +839,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -841,13 +849,13 @@
           <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>56.27</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -862,7 +870,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -872,13 +880,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -893,7 +901,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -903,15 +911,19 @@
           <t xml:space="preserve">Fonte Jfa 200a Storm Bivolt Som Automotivo 200 Amperes </t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>681.83</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -924,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -934,14 +946,14 @@
           <t>Fonte Automotiva 90a Bivolt Volt. Modelo Bob Storm Jfa</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>443.07</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -959,25 +971,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>749.65</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -990,25 +1006,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>77.45</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1021,23 +1041,23 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1052,23 +1072,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C20" t="n">
+        <v>77.45</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1083,25 +1103,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1114,27 +1138,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>525.87</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1149,23 +1173,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>66.5</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1180,23 +1204,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
+          <t>Fonte Carregadora Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>443.07</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1210,30 +1234,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1241,12 +1269,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441591725-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1256,13 +1284,13 @@
           <t>Controle Longa Distância Jfa K600 600 Metros Preto E Rosa</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>79.42</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1277,25 +1305,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>595.85</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1308,25 +1340,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>595.85</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1339,7 +1375,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1349,13 +1385,13 @@
           <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1370,25 +1406,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1401,27 +1441,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>704.89</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1436,23 +1476,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441624469-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>66.2</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1462,30 +1502,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443901659-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1493,12 +1537,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443901659-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1508,13 +1552,13 @@
           <t>Controle Longa Distância Jfa K600 600 Metros Preto Verde</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>78.48999999999999</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1529,7 +1573,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1539,14 +1583,14 @@
           <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>422.93</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1564,7 +1608,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1574,15 +1618,19 @@
           <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>469.92</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1595,7 +1643,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976803848-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976803848-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1605,14 +1653,14 @@
           <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>422.93</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1630,7 +1678,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1688,14 @@
           <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>624.33</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1665,23 +1713,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distancia Jfa K1200 Preto 1200 Metros</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>133.22</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1696,7 +1744,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1706,14 +1754,14 @@
           <t xml:space="preserve">Fonte Jfa 90 Amperes Potencia Bob Storm Som Automotivo </t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>443.07</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1731,23 +1779,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto 1200 Metros</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>133.22</v>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C41" t="n">
+        <v>43.89</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1762,28 +1810,32 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1793,25 +1845,29 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte 120a Jfa Bob Storm Bivolt Medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>749.64</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t xml:space="preserve">Fonte Automotiva 90a Bob Plus+ Jfa Bivolt Multímetro </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1824,29 +1880,25 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976900420-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 90a Bob Plus+ Jfa Bivolt Multímetro </t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1859,7 +1911,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025742315-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>
@@ -1869,13 +1921,13 @@
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>61.19</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1890,7 +1942,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9da2f335-f28e-409f-bc31-5d20e7dfc7cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
         </is>
       </c>
     </row>

--- a/dados/extreme audio.xlsx
+++ b/dados/extreme audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,20 +473,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>674.6900000000001</v>
+        <v>573.36</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -513,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -532,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#searchVariation=MLB27685629&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#searchVariation=MLB27685629&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>573.36</v>
+        <v>634.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -557,33 +561,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>805.59</v>
+        <v>716.71</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -597,28 +601,28 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>548.24</v>
+        <v>847.99</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -637,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -649,13 +653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>65.39</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -668,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>492.3</v>
+        <v>548.24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -703,27 +711,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>716.71</v>
+        <v>492.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -733,28 +741,28 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>422.93</v>
+        <v>624.33</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -763,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -773,23 +781,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>624.33</v>
+        <v>422.93</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -798,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -820,13 +828,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -839,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -851,13 +863,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>56.27</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -870,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -882,13 +898,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>61.19</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -901,29 +921,25 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa 200a Storm Bivolt Som Automotivo 200 Amperes </t>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -931,12 +947,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -971,27 +987,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t xml:space="preserve">Fonte Jfa 200a Storm Bivolt Som Automotivo 200 Amperes </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>749.65</v>
+        <v>681.83</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1001,32 +1017,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Fonte Carregadora Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>581.8200000000001</v>
+        <v>443.07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1041,25 +1057,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>77.45</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1072,25 +1092,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>77.45</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>674.6900000000001</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1103,23 +1127,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
+          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>525.87</v>
+        <v>674.6900000000001</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1138,27 +1162,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443927101-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>525.87</v>
+        <v>66.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1173,25 +1197,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1204,27 +1232,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>443.07</v>
+        <v>525.87</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1239,7 +1267,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -1274,25 +1302,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441591725-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441591725-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Preto E Rosa</t>
+          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>79.42</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1305,27 +1337,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Preto E Rosa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>681.83</v>
+        <v>79.42</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1335,12 +1367,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
@@ -1356,11 +1388,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>595.85</v>
+        <v>536.26</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1375,25 +1407,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>681.83</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1406,27 +1442,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>548.24</v>
+        <v>61.19</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1441,23 +1477,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>704.89</v>
+        <v>548.24</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1476,25 +1512,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
+          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1502,32 +1542,32 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>704.89</v>
+        <v>422.93</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1542,25 +1582,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443901659-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Preto Verde</t>
+          <t>Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>78.48999999999999</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1568,19 +1612,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+          <t xml:space="preserve">Fonte Jfa 90 Amperes Potencia Bob Storm Som Automotivo </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1589,7 +1633,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>422.93</v>
+        <v>443.07</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1603,32 +1647,32 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>469.92</v>
+        <v>634.4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1643,27 +1687,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976803848-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804532-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>422.93</v>
+        <v>890.39</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1678,23 +1722,23 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441624469-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>624.33</v>
+        <v>422.93</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1713,25 +1757,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto 1200 Metros</t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Preto Verde</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>133.22</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>78.48999999999999</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1739,28 +1787,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa 90 Amperes Potencia Bob Storm Som Automotivo </t>
+          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>443.07</v>
+        <v>624.33</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1774,30 +1822,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>469.92</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1805,37 +1857,37 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976803848-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto 1200 Metros</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>443.07</v>
+        <v>133.22</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1845,29 +1897,25 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 90a Bob Plus+ Jfa Bivolt Multímetro </t>
+          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>43.89</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1880,25 +1928,29 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
+          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1911,25 +1963,29 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025742315-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t xml:space="preserve">Fonte Automotiva 90a Bob Plus+ Jfa Bivolt Multímetro </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1937,12 +1993,47 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De081f813-a6e1-4332-a757-54af81472e3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1025742315-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfad13f67-e1d9-4737-829d-65f70061b9c4</t>
         </is>
       </c>
     </row>

--- a/dados/extreme audio.xlsx
+++ b/dados/extreme audio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,18 +493,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>738.22</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -517,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#wid=MLB4189539634&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>61.19</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -552,7 +556,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#searchVariation=MLB30476096&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#wid=MLB3505708389&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,7 +583,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,7 +592,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.2</v>
+        <v>61.19</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -602,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:188510514#wid=MLB3596882155&amp;sid=search&amp;searchVariation=MLB30476096&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,25 +628,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>552.35</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -652,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#searchVariation=MLB23998473&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#wid=MLB3596427129&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=8870ac2a-84f4-4110-988e-f5f78b3e6da8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>548.24</v>
+        <v>456.35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -697,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043447586-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#wid=MLB4311717156&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=8870ac2a-84f4-4110-988e-f5f78b3e6da8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,20 +718,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>61.19</v>
+        <v>456.36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -737,19 +741,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025737105-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#wid=MLB3445611853&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>492.3</v>
+        <v>829.76</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -787,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:188510514#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#wid=MLB4337898312&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=8870ac2a-84f4-4110-988e-f5f78b3e6da8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>87.90000000000001</v>
+        <v>65.39</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -827,19 +831,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#searchVariation=MLB27687422&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#wid=MLB3514727423&amp;sid=search&amp;searchVariation=MLB27970249&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,25 +853,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>702.29</v>
+        <v>552.35</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -877,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:188510514#wid=MLB4189567340&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>525.87</v>
+        <v>56.27</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -917,19 +921,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043499618-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D174fc9df-5f10-4de2-83db-f2484a5331cb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +943,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.5</v>
+        <v>508.22</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -957,24 +961,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025734592-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#wid=MLB3543051131&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=8870ac2a-84f4-4110-988e-f5f78b3e6da8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,16 +988,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Preto E Rosa</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>79.42</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1012,14 +1016,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:188510514#wid=MLB4476378134&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,20 +1033,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>469.93</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1057,14 +1061,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:188510514#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976804532-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D49e3ad80-6a03-4ba5-85ae-0f0cdddbba31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,20 +1078,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>525.87</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1097,19 +1101,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538222-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188510514#wid=MLB4476198292&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=bac52e1a-146a-4bca-a82d-3eda3427eadc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,16 +1123,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Preto E Rosa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>548.24</v>
+        <v>78.42</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1142,19 +1146,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:188510514#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1131372448-controle-longa-distncia-jfa-k600-600-metros-preto-e-rosa-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D174fc9df-5f10-4de2-83db-f2484a5331cb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,25 +1168,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>693.7</v>
+        <v>435.62</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1192,14 +1196,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:188510514#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D49e3ad80-6a03-4ba5-85ae-0f0cdddbba31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,20 +1213,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Controle Remoto Longa Distância Jfa K1200 Acqua</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>581.8200000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1232,19 +1236,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453631105-controle-remoto-longa-distncia-jfa-k1200-acqua-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D158d825d-3bba-4dfa-a651-6f93ca7881e9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,20 +1258,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>847.99</v>
+        <v>456.35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1282,14 +1286,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:188510514#searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976902132-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0b30f20-327c-4574-a2b9-a39092e1cbe2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,20 +1303,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t xml:space="preserve">Fonte Jfa 200a Storm Bivolt Som Automotivo 200 Amperes </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>552.35</v>
+        <v>702.29</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1327,14 +1331,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0b30f20-327c-4574-a2b9-a39092e1cbe2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,16 +1348,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>65.39</v>
+        <v>66.2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1367,19 +1371,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:188510514#searchVariation=MLB27970249&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486525094-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df0b30f20-327c-4574-a2b9-a39092e1cbe2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,16 +1393,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t>Controle Longa Distancia Jfa K1200 1200 Metros Azul</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>749.65</v>
+        <v>66.2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1417,14 +1421,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443927101-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056647826-controle-longa-distancia-jfa-k1200-1200-metros-azul-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da597b847-fcde-40c0-a1e4-7967338ee746</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,7 +1438,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1443,33 +1447,33 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>492.3</v>
+        <v>435.62</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543919-fonte-carregadora-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ded91d55f-9dd2-4f4c-89b3-ae55998cd987</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,16 +1483,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 60a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>749.64</v>
+        <v>487.48</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1507,14 +1511,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976826714-fonte-carregadora-bateria-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb622efb-c25b-47e0-9b5e-e8a612e728f1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,25 +1528,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Acqua De Longa Distacia Longo Alcance</t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Branco E Rosa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>77.45</v>
+        <v>79.42</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1552,14 +1556,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453605553-controle-jfa-1200-acqua-de-longa-distacia-longo-alcance-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1131374515-controle-longa-distncia-jfa-k600-600-metros-branco-e-rosa-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Deb622efb-c25b-47e0-9b5e-e8a612e728f1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1569,16 +1573,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Rosa Preto</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>738.22</v>
+        <v>79.42</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1592,19 +1596,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:188510514#searchVariation=MLB24154371&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1028717140-controle-longa-distncia-jfa-k600-600-metros-rosa-preto-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d1ccdf0-d408-4f61-b660-a9bd3fc3e3b7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1614,16 +1618,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>469.93</v>
+        <v>539.34</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1637,19 +1641,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475632-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976895296-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8d1ccdf0-d408-4f61-b660-a9bd3fc3e3b7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1659,16 +1663,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Preto Verde</t>
+          <t xml:space="preserve">Fonte Jfa 90 Amperes Potencia Bob Storm Som Automotivo </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>78.48999999999999</v>
+        <v>456.36</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1682,19 +1686,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028717138-controle-longa-distncia-jfa-k600-600-metros-preto-verde-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc07c5f06-5a33-4e22-b304-4b76e454b482</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1704,16 +1708,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t xml:space="preserve">Fonte Automotiva 90a Bob Plus+ Jfa Bivolt Multímetro </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>704.89</v>
+        <v>456.36</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1727,19 +1731,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:188510514#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc07c5f06-5a33-4e22-b304-4b76e454b482</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1749,7 +1753,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+          <t xml:space="preserve">Fonte Automotiva 90a Plus+ Bob Jfa Storm </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1758,11 +1762,11 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>469.93</v>
+        <v>435.62</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1777,14 +1781,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3445543933-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-731264410-fonte-automotiva-90a-plus-bob-jfa-storm-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66f9f83d-d5d2-4937-89e1-29f1b0de4aba</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1794,22 +1798,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>56.27</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>715.66</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486288506-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482132383-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66f9f83d-d5d2-4937-89e1-29f1b0de4aba</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa 90 Amperes Potencia Bob Storm Som Automotivo </t>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1848,11 +1848,11 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>492.3</v>
+        <v>435.62</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1862,19 +1862,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443744-fonte-jfa-90-amperes-potencia-bob-storm-som-automotivo-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976885792-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D34ff6836-1a23-4eeb-a830-2dfe8315d8b5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1884,22 +1884,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 90a Bivolt Volt. Modelo Bob Storm Jfa</t>
+          <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>61.19</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1907,19 +1903,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1170443745-fonte-automotiva-90a-bivolt-volt-modelo-bob-storm-jfa-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056647828-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D056153eb-24eb-4f4a-b830-1e0948d054ef</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1929,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Jfa 200a Storm Bivolt Som Automotivo 200 Amperes </t>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>702.29</v>
+        <v>66.2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1952,19 +1948,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482054069-fonte-jfa-200a-storm-bivolt-som-automotivo-200-amperes-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025742315-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De35c09c2-b1ab-4622-b65e-2cf7d7947cbd</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1974,42 +1970,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>492.3</v>
+        <v>552.35</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976885800-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130437848-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2990c3b4-6f77-410e-9435-cfc3319362a3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2019,16 +2015,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>847.99</v>
+        <v>539.34</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2042,19 +2038,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441591725-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3432343151-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea4c9c8f-0209-49d5-b84f-ca95f1282b74</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2064,16 +2060,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Controle Longa Distancia Jfa K1200 Amarelo Alcance 1200 Mets</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>704.89</v>
+        <v>76.2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2087,19 +2083,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056652943-controle-longa-distancia-jfa-k1200-amarelo-alcance-1200-mets-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea4c9c8f-0209-49d5-b84f-ca95f1282b74</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2109,16 +2105,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 90a Bob Plus+ Jfa Bivolt Multímetro </t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Branco Rosa</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>492.3</v>
+        <v>79.42</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2132,19 +2128,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-883485927-fonte-automotiva-90a-bob-plus-jfa-bivolt-multimetro-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1028713817-controle-longa-distncia-jfa-k600-600-metros-branco-rosa-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea4c9c8f-0209-49d5-b84f-ca95f1282b74</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2154,7 +2150,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto 1200 Metros</t>
+          <t>Controle Jfa 1200 Longa Distancia Universal Radio K1200 Bran</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2163,11 +2159,11 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>133.22</v>
+        <v>61.19</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2177,19 +2173,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777452546-controle-longa-distancia-jfa-k1200-preto-1200-metros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056652940-controle-jfa-1200-longa-distancia-universal-radio-k1200-bran-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc8a85aec-5752-437d-96ca-99637e7d7811</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2199,20 +2195,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 200a Bob Storm Automotiva Bivolt</t>
+          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>693.7</v>
+        <v>61.19</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2227,14 +2223,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055679-fonte-jfa-carrregador-200a-bob-storm-automotiva-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1486415611-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5631a2a-a6d6-4c22-ad35-a8bd80492579</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2244,16 +2240,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>Controle Longa Distancia Jfa K1200 Verde Alcance 1200 Metros</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>548.24</v>
+        <v>66.2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2267,19 +2263,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3432330255-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056652941-controle-longa-distancia-jfa-k1200-verde-alcance-1200-metros-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Decbd74a1-50f0-405c-a52c-b977f901905c</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2289,20 +2285,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.2</v>
+        <v>921.96</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2312,19 +2308,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025742315-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441591725-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Decbd74a1-50f0-405c-a52c-b977f901905c</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2334,20 +2330,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>890.39</v>
+        <v>61.19</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2362,14 +2358,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441624469-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Decbd74a1-50f0-405c-a52c-b977f901905c</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2379,18 +2375,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+        <v>702.29</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371508-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041393-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Decbd74a1-50f0-405c-a52c-b977f901905c</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2420,20 +2420,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>749.64</v>
+        <v>456.36</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2443,19 +2443,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976791694-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6601faf2-7115-4591-ba88-57f6bbd23a5a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3445542589-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Decbd74a1-50f0-405c-a52c-b977f901905c</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2465,20 +2465,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Longa Distancia Universal Radio K1200 Bran</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>61.19</v>
+        <v>694.92</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2488,19 +2488,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056652940-controle-jfa-1200-longa-distancia-universal-radio-k1200-bran-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838535-fonte-carregadora-bateria-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Decbd74a1-50f0-405c-a52c-b977f901905c</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2510,16 +2510,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Amarelo Alcance 1200 Mets</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>76.2</v>
+        <v>694.92</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2538,14 +2538,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056652943-controle-longa-distancia-jfa-k1200-amarelo-alcance-1200-mets-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976791694-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5fdf538-3b1a-4a8e-8503-397c5f6fc26a</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2555,20 +2555,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Acqua De Longa Distacia Branco</t>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Branco 1200 Metros </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>78.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453603045-controle-jfa-1200-acqua-de-longa-distacia-branco-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-777452543-controle-longa-distancia-jfa-k1200-branco-1200-metros-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5fdf538-3b1a-4a8e-8503-397c5f6fc26a</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2600,16 +2600,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros Preto E Cinza</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>68.26000000000001</v>
+        <v>66</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2628,14 +2628,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2049428887-controle-remoto-k600-jfa-600-metros-preto-e-cinza-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025734513-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df5fdf538-3b1a-4a8e-8503-397c5f6fc26a</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2645,20 +2645,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Branco Rosa</t>
+          <t>Controle Jfa 1200 Acqua De Longa Distacia Branco</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>79.42</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2673,14 +2673,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028713817-controle-longa-distncia-jfa-k600-600-metros-branco-rosa-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453603045-controle-jfa-1200-acqua-de-longa-distacia-branco-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc9fb3e-de9a-4f7a-a659-b1248f02f476</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Branco Cinza</t>
+          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>79.3</v>
+        <v>921.96</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2713,19 +2713,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028710757-controle-longa-distncia-jfa-k600-600-metros-branco-cinza-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4034608900-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc9fb3e-de9a-4f7a-a659-b1248f02f476</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2735,20 +2735,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Controle De Longa Distancia Jfa 1200 Acqua Longo Alcance</t>
+          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>78.66</v>
+        <v>487.47</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2763,14 +2763,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453618443-controle-de-longa-distancia-jfa-1200-acqua-longo-alcance-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976806288-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc9fb3e-de9a-4f7a-a659-b1248f02f476</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2780,16 +2780,16 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Fonte Carregadora De Bateria Jfa Storm 120a Bivolt Cca E Sci</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>61.19</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2808,14 +2808,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-778473414-controle-longa-distancia-jfa-k1200-alcance-de-1200-metros-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976791668-fonte-carregadora-de-bateria-jfa-storm-120a-bivolt-cca-e-sci-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc9fb3e-de9a-4f7a-a659-b1248f02f476</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Branco E Rosa</t>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>79.42</v>
+        <v>62.89</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2853,14 +2853,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1131374515-controle-longa-distncia-jfa-k600-600-metros-branco-e-rosa-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453920349-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc9fb3e-de9a-4f7a-a659-b1248f02f476</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2870,20 +2870,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distância Jfa K1200 Acqua</t>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>78.90000000000001</v>
+        <v>539.34</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2893,19 +2893,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453631105-controle-remoto-longa-distncia-jfa-k1200-acqua-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460814-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4fc9fb3e-de9a-4f7a-a659-b1248f02f476</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2915,16 +2915,16 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fonte 120a Jfa Bob Storm Bivolt Medidor Cca E Sci Automotiva</t>
+          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>749.64</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2943,14 +2943,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976900420-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453617119-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb4f965f-f2eb-4ed9-9d1b-75cbf02bc1a5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2960,16 +2960,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>87.90000000000001</v>
+        <v>58.13</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2983,19 +2983,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453617119-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453774441-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb4f965f-f2eb-4ed9-9d1b-75cbf02bc1a5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3005,16 +3005,16 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
+          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.19</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3033,14 +3033,14 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486415611-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453631115-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb4f965f-f2eb-4ed9-9d1b-75cbf02bc1a5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3050,16 +3050,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
+          <t xml:space="preserve"> Controle De Longa Distancia Jfa 1200 Acqua Longo Alcance</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>62.89</v>
+        <v>78.66</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3078,14 +3078,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453920349-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453618443-controle-de-longa-distancia-jfa-1200-acqua-longo-alcance-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb4f965f-f2eb-4ed9-9d1b-75cbf02bc1a5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3095,16 +3095,16 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Branco Alcance 1200 Mets</t>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66.2</v>
+        <v>508.22</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3118,19 +3118,19 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056652942-controle-longa-distancia-jfa-k1200-branco-alcance-1200-mets-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976884446-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9dc08704-9658-4847-b26c-9aef403ff338</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3140,20 +3140,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Verde Alcance 1200 Metros</t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Branco Cinza</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.2</v>
+        <v>79.3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3163,19 +3163,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056652941-controle-longa-distancia-jfa-k1200-verde-alcance-1200-metros-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1028710757-controle-longa-distncia-jfa-k600-600-metros-branco-cinza-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9dc08704-9658-4847-b26c-9aef403ff338</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3185,20 +3185,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Branco 1200 Metros </t>
+          <t>Controle Longa Distância Jfa K600 600 Metros Branco E Cinza</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>66.2</v>
+        <v>78.42</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3213,14 +3213,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777452543-controle-longa-distancia-jfa-k1200-branco-1200-metros-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1131374478-controle-longa-distncia-jfa-k600-600-metros-branco-e-cinza-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9dc08704-9658-4847-b26c-9aef403ff338</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3230,20 +3230,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa 1200 Acqua</t>
+          <t>Controle Remoto  K600 Jfa 600 Metros Preto E Cinza</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>78.90000000000001</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3253,19 +3253,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453631115-controle-remoto-de-longa-distacia-jfa-1200-acqua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2049428887-controle-remoto-k600-jfa-600-metros-preto-e-cinza-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df39459f5-c425-4aa9-82b6-c7c386276caa</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3275,20 +3275,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Rosa Preto</t>
+          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>79.42</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3303,14 +3303,14 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028717140-controle-longa-distncia-jfa-k600-600-metros-rosa-preto-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443832211-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df39459f5-c425-4aa9-82b6-c7c386276caa</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3320,20 +3320,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Amarelo</t>
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>76.2</v>
+        <v>58.13</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3343,19 +3343,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025741586-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063842550-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De055684d-1cb6-4d4f-b002-331c6cca97db</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3393,14 +3393,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025737658-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025734697-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De055684d-1cb6-4d4f-b002-331c6cca97db</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Amarelo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>581.8200000000001</v>
+        <v>71.19</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3433,19 +3433,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3432343151-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1025735708-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De055684d-1cb6-4d4f-b002-331c6cca97db</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Branco</t>
+          <t>Controle Longa Distancia Jfa K1200 Branco Alcance 1200 Mets</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3483,14 +3483,14 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486525094-controle-jfa-k1200-longa-distancia-1200-metros-som-branco-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1056652942-controle-longa-distancia-jfa-k1200-branco-alcance-1200-mets-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De055684d-1cb6-4d4f-b002-331c6cca97db</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3500,20 +3500,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Verde</t>
+          <t>Controle Remoto K600 Jfa Longa Alcance  600 Metros</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>66.2</v>
+        <v>62.89</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3528,14 +3528,14 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486331558-controle-jfa-k1200-longa-distancia-1200-metros-som-verde-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453684611-controle-remoto-k600-jfa-longa-alcance-600-metros-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09171f46-508c-4045-a66a-cefe76484d82</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3545,20 +3545,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+          <t>Controle Remoto  K600 Jfa 600 Metros</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>492.3</v>
+        <v>58.13</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3568,1133 +3568,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976803846-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976895296-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976884446-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Fonte Carregadora De Bateria Jfa Storm 120a Bivolt Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976791668-fonte-carregadora-de-bateria-jfa-storm-120a-bivolt-cca-e-sci-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976804532-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1056647828-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486469299-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486583883-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486288502-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Verde Preto</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>79.42</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028713815-controle-longa-distncia-jfa-k600-600-metros-verde-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Laranja Preto</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1028710758-controle-longa-distncia-jfa-k600-600-metros-laranja-preto-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Vermelho</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>78.58</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486467741-controle-jfa-k1200-longa-distancia-1200-metros-som-vermelho-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Colorido 1200 Metros Som</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486415630-controle-longa-distancia-jfa-k1200-colorido-1200-metros-som-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025741131-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Controle Jfa Longa Distãncia K1200 1200 Metros</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-778470394-controle-jfa-longa-distncia-k1200-1200-metros-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2049415889-controle-remoto-k600-jfa-600-metros-preto-e-cinza-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul 1200 Metros</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777446769-controle-longa-distancia-jfa-k1200-azul-1200-metros-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453931301-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Vermelho 1200 Metros </t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>78.67</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-777446761-controle-longa-distancia-jfa-k1200-vermelho-1200-metros-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Preto</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>133.39</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1486583848-controle-jfa-k1200-longa-distancia-1200-metros-som-preto-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa K600 600 Metros Branco E Cinza</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>78.42</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1131374478-controle-longa-distncia-jfa-k600-600-metros-branco-e-cinza-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Controle Remoto K600 Jfa Longa Alcance  600 Metros</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453684611-controle-remoto-k600-jfa-longa-alcance-600-metros-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Amarelo</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1025735708-controle-remoto-universal-longa-distncia-jfa-k1200-amarelo-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063842550-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453931297-controle-remoto-k600-jfa-600-metros-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>extreme audio</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453774441-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70fb6c-8a6f-4f09-8428-d0f8b08671bf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453931297-controle-remoto-k600-jfa-600-metros-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D09171f46-508c-4045-a66a-cefe76484d82</t>
         </is>
       </c>
     </row>
